--- a/CustomLocalization-RU/Localization/RogueTech/RU/DarkAge HeavyMetal and Unique/LocalizationDef.xlsx
+++ b/CustomLocalization-RU/Localization/RogueTech/RU/DarkAge HeavyMetal and Unique/LocalizationDef.xlsx
@@ -14,18 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>chassisdef_gun_GN-2OR.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">The Gùn is a moderately fast light OmniMech which was designed by the Capellan Confederation as an Infantry Support 'Mech. Rebuilding several 'liberated' chassis from border conflicts was this upgraded with a more formidable engine and Stealth systems to infiltrate deep into capellan Territory.
+    <t xml:space="preserve">The Gùn is a moderately fast light OmniMech which was designed by the Capellan Confederation as an Infantry Support 'Mech. Designed with 10 tons of pod space, the default configuration of the Gùn features a combination of anti-infantry and anti-vehicle energy weaponry. The 'Mech also features a Small Cockpit and an XL Gyro.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Short&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.92&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">The Gùn is a moderately fast light OmniMech which was designed by the Capellan Confederation as an Infantry Support 'Mech. Rebuilding several 'liberated' chassis from border conflicts was this upgraded with a more formidable engine and Stealth systems to infiltrate deep into capellan Territory.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Short&lt;/color&gt;&lt;/b&gt;
+    <t xml:space="preserve">The Gùn is a moderately fast light OmniMech which was designed by the Capellan Confederation as an Infantry Support 'Mech. Designed with 10 tons of pod space, the default configuration of the Gùn features a combination of anti-infantry and anti-vehicle energy weaponry. The 'Mech also features a Small Cockpit and an XL Gyro.
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. наведение - Short&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.02&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>Garrison Scout</t>
+  </si>
+  <si>
+    <t>Гарнизонный разведчик</t>
   </si>
   <si>
     <t>chassisdef_gun_GN-2OR.YangsThoughts</t>
@@ -50,7 +53,7 @@
   </si>
   <si>
     <t xml:space="preserve">Malvina Hazen was part of the group assigned to designing the Jadehawk, while the Khan was a galaxy commander one she shared an especially close bond with Khan Hazen. This mech was her last gift to her brother.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Distracting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устрашающий&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.23&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -78,7 +81,7 @@
   </si>
   <si>
     <t xml:space="preserve">A custom made adaptation of the JHK-03 ordered by Celina Santos. It replaces the the SRM-6s with an Advanced Tactical Missile System and an LB-X Autocannon/5. It was the first Jade Hawk to become (in)famous in the Inner Sphere.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Distracting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устрашающий&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.22&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -100,7 +103,7 @@
   </si>
   <si>
     <t xml:space="preserve">Used by Republic of the Sphere Knight Eve Kincaid during the invasion of Liao in 3134, this Mad Cat III was equipped with an Extended-range PPC and two ER Medium Lasers controlled by a Targeting Computer. The Missile Launchers were downgraded to LRM-10 racks, but augmented with Artemis IV FCS.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. средства связи&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -128,7 +131,7 @@
   </si>
   <si>
     <t xml:space="preserve">This variant of the Omen was introduced during the Dark Age in 3141. It carries the LB 10-X and AMS of the original design, but only carries one Medium Pulse Laser and one ER Medium Laser. The ATM-12 has been downrated to an ATM-9 with two tons of ammunition, and three heat sinks were removed. With the weight saved by removing these weapons and equipment, engineers added a HarJel III system to each torso.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Protected Actuators&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Закрытые приводы&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.21&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
   </si>
   <si>
     <t>Experimental Clan BattleMech</t>
+  </si>
+  <si>
+    <t>Тестовый боевой мех кланов</t>
   </si>
   <si>
     <t>chassisdef_omen_OM-2.YangsThoughts</t>
@@ -153,7 +159,7 @@
   </si>
   <si>
     <t xml:space="preserve">This model is produced by both Oriente Weapon Works and Kallon Industries using the latest innovations to move the Rifleman towards a more prominent role again. Compared to its brother design, the RFL-7N2, the RFL-7N focuses more on direct energy weapons over ballistics. This model is produced by both Oriente Weapon Works and Kallon Industries, although not in as great numbers as the -7N2.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: ПВО&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -181,7 +187,7 @@
   </si>
   <si>
     <t xml:space="preserve">A collaboration between Oriente Weapon Works and Kallon of Talon, the RFL-7N2 carries two LB/X 10 Autocannons, 2 Light PPCs and 2 ER Medium Lasers. To fit the weaponary the 'Mech uses a 240 XL engin, but does come with CASE II to protect the volatile ammunition bins.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: ПВО&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -203,7 +209,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Rifleman C 3 are completely constructed from scratch, unlike the Rifleman C retrofit of the RFL-3N, which pair integrated cutting-edge technology with classic styling. With its dual Ultra AC5 and twin Extended-Range Large Lasers main armament, the C 3 is perfect for garrisoning duties. The combination of Ferro-Fibrous armor with CASE II and Endo Steel structure also allows adding two Extended-Range Medium Lasers for close range protection and a total of 14 heatsinks.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: ПВО&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -295,7 +301,7 @@
   </si>
   <si>
     <t xml:space="preserve">With only a pair of Thunderbolt-5 launchers and a retractable blade for weapons, “Aladdin” isn’t a flashy fighter. Its Angel ECM and stealth armor give it the ability to hide in built up terrain, and thus surprise strikes are its best hope.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Узкий / Низкий профиль&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.02&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -303,6 +309,9 @@
   </si>
   <si>
     <t>Sniper &amp; Skirmisher</t>
+  </si>
+  <si>
+    <t>Снайпер / Перестрелка</t>
   </si>
   <si>
     <t>chassisdef_vulcan_VL-VT-5ML.YangsThoughts</t>
@@ -320,7 +329,7 @@
   </si>
   <si>
     <t xml:space="preserve">Using space savings of the XL Engine and strength of its endo-steel construction, the Warwolf is able to carry 30 tons worth of Omni pod weapons and equipment.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Medium&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. наведение - Medium&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -334,16 +343,6 @@
   </si>
   <si>
     <t>mechdef_gun_GN-2OR.Description.Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Gùn is a moderately fast light OmniMech which was designed by the Capellan Confederation as an Infantry Support 'Mech. Designed with 10 tons of pod space, the default configuration of the Gùn features a combination of anti-infantry and anti-vehicle energy weaponry. The 'Mech also features a Small Cockpit and an XL Gyro.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Short&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.92&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Gùn is a moderately fast light OmniMech which was designed by the Capellan Confederation as an Infantry Support 'Mech. Designed with 10 tons of pod space, the default configuration of the Gùn features a combination of anti-infantry and anti-vehicle energy weaponry. The 'Mech also features a Small Cockpit and an XL Gyro.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Short&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.02&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_hazen_JHK-HZN.Description.Details</t>
@@ -465,7 +464,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -767,28 +768,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="66.140625" customWidth="1" style="2"/>
-    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
-    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="8" width="9.140625" customWidth="1" style="2"/>
+    <col min="9" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="4">
         <v>1</v>
       </c>
     </row>
@@ -799,8 +800,8 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -808,13 +809,13 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="E3" s="2">
         <v>3</v>
@@ -822,13 +823,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="E4" s="2">
         <v>4</v>
@@ -836,13 +837,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E5" s="2">
         <v>5</v>
@@ -850,13 +851,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="E6" s="2">
         <v>6</v>
@@ -864,13 +865,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E7" s="2">
         <v>7</v>
@@ -878,13 +879,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E8" s="2">
         <v>8</v>
@@ -892,13 +893,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="E9" s="2">
         <v>9</v>
@@ -906,13 +907,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
@@ -920,13 +921,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E11" s="2">
         <v>11</v>
@@ -934,13 +935,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E12" s="2">
         <v>12</v>
@@ -948,13 +949,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="E13" s="2">
         <v>13</v>
@@ -962,13 +963,13 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
@@ -976,13 +977,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E15" s="2">
         <v>15</v>
@@ -990,13 +991,13 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="E16" s="2">
         <v>16</v>
@@ -1004,13 +1005,13 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E17" s="2">
         <v>17</v>
@@ -1018,13 +1019,13 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="E18" s="2">
         <v>18</v>
@@ -1032,13 +1033,13 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="E19" s="2">
         <v>19</v>
@@ -1046,13 +1047,13 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E20" s="2">
         <v>20</v>
@@ -1060,13 +1061,13 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E21" s="2">
         <v>21</v>
@@ -1074,13 +1075,13 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E22" s="2">
         <v>22</v>
@@ -1088,13 +1089,13 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="E23" s="2">
         <v>23</v>
@@ -1102,13 +1103,13 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="E24" s="2">
         <v>24</v>
@@ -1116,13 +1117,13 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E25" s="2">
         <v>25</v>
@@ -1130,13 +1131,13 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="E26" s="2">
         <v>26</v>
@@ -1144,13 +1145,13 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="E27" s="2">
         <v>27</v>
@@ -1158,13 +1159,13 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E28" s="2">
         <v>28</v>
@@ -1172,13 +1173,13 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="E29" s="2">
         <v>29</v>
@@ -1186,13 +1187,13 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="E30" s="2">
         <v>30</v>
@@ -1200,13 +1201,13 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E31" s="2">
         <v>31</v>
@@ -1214,13 +1215,13 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="E32" s="2">
         <v>32</v>
@@ -1228,13 +1229,13 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="E33" s="2">
         <v>33</v>
@@ -1242,13 +1243,13 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E34" s="2">
         <v>34</v>
@@ -1256,13 +1257,13 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="E35" s="2">
         <v>35</v>
@@ -1270,13 +1271,13 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="E36" s="2">
         <v>36</v>
@@ -1284,13 +1285,13 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E37" s="2">
         <v>37</v>
@@ -1298,13 +1299,13 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="E38" s="2">
         <v>38</v>
@@ -1312,13 +1313,13 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="E39" s="2">
         <v>39</v>
@@ -1326,13 +1327,13 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="E40" s="2">
         <v>40</v>
@@ -1340,13 +1341,13 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="E41" s="2">
         <v>41</v>
@@ -1354,13 +1355,13 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="E42" s="2">
         <v>42</v>
@@ -1368,13 +1369,13 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="E43" s="2">
         <v>43</v>
@@ -1382,13 +1383,13 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E44" s="2">
         <v>44</v>
@@ -1396,13 +1397,13 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="E45" s="2">
         <v>45</v>
@@ -1410,13 +1411,13 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>93</v>
+        <v>1</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="E46" s="2">
         <v>46</v>
@@ -1424,13 +1425,13 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="E47" s="2">
         <v>47</v>
@@ -1438,13 +1439,13 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E48" s="2">
         <v>48</v>
@@ -1452,13 +1453,13 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E49" s="2">
         <v>49</v>
@@ -1466,13 +1467,13 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="E50" s="2">
         <v>50</v>
@@ -1480,13 +1481,13 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="E51" s="2">
         <v>51</v>
@@ -1494,13 +1495,13 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="E52" s="2">
         <v>52</v>
@@ -1508,13 +1509,13 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E53" s="2">
         <v>53</v>
@@ -1522,13 +1523,13 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E54" s="2">
         <v>54</v>
@@ -1536,13 +1537,13 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E55" s="2">
         <v>55</v>
@@ -1550,13 +1551,13 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E56" s="2">
         <v>56</v>
@@ -1564,13 +1565,13 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E57" s="2">
         <v>57</v>
@@ -1578,13 +1579,13 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E58" s="2">
         <v>58</v>
@@ -1592,13 +1593,13 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="E59" s="2">
         <v>59</v>
@@ -1606,13 +1607,13 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="E60" s="2">
         <v>60</v>
@@ -1620,13 +1621,13 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C61" s="4" t="s">
         <v>110</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="E61" s="2">
         <v>61</v>
@@ -1634,13 +1635,13 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="4" t="s">
         <v>113</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="E62" s="2">
         <v>62</v>
@@ -1648,13 +1649,13 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C63" s="4" t="s">
         <v>110</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="E63" s="2">
         <v>63</v>
